--- a/data/pca/factorExposure/factorExposure_2018-01-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-01-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0003818667130282181</v>
+        <v>0.007664488418767238</v>
       </c>
       <c r="C2">
-        <v>-0.005250938545306518</v>
+        <v>-0.02626823520441668</v>
       </c>
       <c r="D2">
-        <v>-0.0215053821207611</v>
+        <v>-0.02674832253772927</v>
       </c>
       <c r="E2">
-        <v>-0.04427678107251649</v>
+        <v>0.01114923737230019</v>
       </c>
       <c r="F2">
-        <v>-0.04914362684679412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.03331491601259945</v>
+      </c>
+      <c r="G2">
+        <v>0.01191279680957099</v>
+      </c>
+      <c r="H2">
+        <v>-0.02319817572093629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.06141906617747557</v>
+        <v>0.06119221264228733</v>
       </c>
       <c r="C3">
-        <v>0.005024799591687581</v>
+        <v>-0.0870487941265991</v>
       </c>
       <c r="D3">
-        <v>0.02382986609690008</v>
+        <v>-0.009808236201797294</v>
       </c>
       <c r="E3">
-        <v>-0.1709209560035302</v>
+        <v>0.05441093056301123</v>
       </c>
       <c r="F3">
-        <v>-0.22986688021512</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.1189853924268255</v>
+      </c>
+      <c r="G3">
+        <v>-0.01428107567103449</v>
+      </c>
+      <c r="H3">
+        <v>-0.06599321080650036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03159514470086839</v>
+        <v>0.0368018074436391</v>
       </c>
       <c r="C4">
-        <v>0.01597306218516427</v>
+        <v>-0.0570907729572152</v>
       </c>
       <c r="D4">
-        <v>-0.03168067575235738</v>
+        <v>-0.02070862319470079</v>
       </c>
       <c r="E4">
-        <v>-0.002475931122937993</v>
+        <v>-0.00391462487152771</v>
       </c>
       <c r="F4">
-        <v>-0.05133169469438342</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.04092010873831294</v>
+      </c>
+      <c r="G4">
+        <v>-0.02601365385106195</v>
+      </c>
+      <c r="H4">
+        <v>0.001060234999500143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04951465916536654</v>
+        <v>0.02389149806227496</v>
       </c>
       <c r="C6">
-        <v>0.00523297310241573</v>
+        <v>-0.05677464604492535</v>
       </c>
       <c r="D6">
-        <v>-0.04204073660863839</v>
+        <v>-0.01485782023408509</v>
       </c>
       <c r="E6">
-        <v>-0.001824007422114119</v>
+        <v>-0.003736141164440056</v>
       </c>
       <c r="F6">
-        <v>-0.03936614544460505</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.02142428126880384</v>
+      </c>
+      <c r="G6">
+        <v>-0.01197242319601874</v>
+      </c>
+      <c r="H6">
+        <v>-0.004934150300640414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02097077580315697</v>
+        <v>0.005651319491262671</v>
       </c>
       <c r="C7">
-        <v>0.07086077536033067</v>
+        <v>-0.02960912059561582</v>
       </c>
       <c r="D7">
-        <v>-0.005580936046210886</v>
+        <v>-0.01222461745192694</v>
       </c>
       <c r="E7">
-        <v>-0.00437538111562875</v>
+        <v>-0.01735446271776614</v>
       </c>
       <c r="F7">
-        <v>-0.01564235489556108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.02707645045240951</v>
+      </c>
+      <c r="G7">
+        <v>-0.06324447839737143</v>
+      </c>
+      <c r="H7">
+        <v>-0.03610271889279054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01393229939921267</v>
+        <v>-0.005868945329072046</v>
       </c>
       <c r="C8">
-        <v>0.009639265957899906</v>
+        <v>-0.003114105905901705</v>
       </c>
       <c r="D8">
-        <v>-0.02254455540457062</v>
+        <v>-0.001925891794891709</v>
       </c>
       <c r="E8">
-        <v>-0.005381502155033942</v>
+        <v>0.004851220443822239</v>
       </c>
       <c r="F8">
-        <v>-0.05005391016852932</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.03088023061951043</v>
+      </c>
+      <c r="G8">
+        <v>-0.01302717876983999</v>
+      </c>
+      <c r="H8">
+        <v>0.0003988895879113742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.02680064207783351</v>
+        <v>0.01683596630216275</v>
       </c>
       <c r="C9">
-        <v>0.01247509922366019</v>
+        <v>-0.03746197165743243</v>
       </c>
       <c r="D9">
-        <v>-0.0303847100680161</v>
+        <v>-0.0146020012375081</v>
       </c>
       <c r="E9">
-        <v>-0.03285224511567418</v>
+        <v>-0.001279566366134401</v>
       </c>
       <c r="F9">
-        <v>-0.05174430284464905</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.02334609271667672</v>
+      </c>
+      <c r="G9">
+        <v>-0.01641852227476197</v>
+      </c>
+      <c r="H9">
+        <v>-0.02103591230423273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.053666910829136</v>
+        <v>0.1093273420698074</v>
       </c>
       <c r="C10">
-        <v>-0.004774851908685357</v>
+        <v>0.172448613704222</v>
       </c>
       <c r="D10">
-        <v>0.1566632128017622</v>
+        <v>0.02213162183432357</v>
       </c>
       <c r="E10">
-        <v>-0.05596703642020333</v>
+        <v>0.02558543596970232</v>
       </c>
       <c r="F10">
-        <v>0.006226865016063904</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.002939106137705461</v>
+      </c>
+      <c r="G10">
+        <v>-0.02224508464998735</v>
+      </c>
+      <c r="H10">
+        <v>-0.0375624235391222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02661626020731057</v>
+        <v>0.02254115171732541</v>
       </c>
       <c r="C11">
-        <v>-0.003159616317551674</v>
+        <v>-0.05129127299068847</v>
       </c>
       <c r="D11">
-        <v>-0.04311365471175012</v>
+        <v>-0.0003626980276360347</v>
       </c>
       <c r="E11">
-        <v>0.004532214793964859</v>
+        <v>-0.008109828875012675</v>
       </c>
       <c r="F11">
-        <v>-0.02092808383828287</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03470111632949285</v>
+      </c>
+      <c r="G11">
+        <v>0.009352291389015456</v>
+      </c>
+      <c r="H11">
+        <v>-0.01650346845926959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03431316388426874</v>
+        <v>0.02503323114251576</v>
       </c>
       <c r="C12">
-        <v>0.002486641225737694</v>
+        <v>-0.04521929178479252</v>
       </c>
       <c r="D12">
-        <v>-0.03773180562428057</v>
+        <v>-0.004407471095874559</v>
       </c>
       <c r="E12">
-        <v>0.01828886089478729</v>
+        <v>-0.01288753434907993</v>
       </c>
       <c r="F12">
-        <v>-0.002865647477638063</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01687341711219026</v>
+      </c>
+      <c r="G12">
+        <v>-0.006846174048186083</v>
+      </c>
+      <c r="H12">
+        <v>-0.01047079037517253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01435518141194983</v>
+        <v>0.01025629561783941</v>
       </c>
       <c r="C13">
-        <v>-0.00238898597677694</v>
+        <v>-0.02444359845390028</v>
       </c>
       <c r="D13">
-        <v>-0.005965236830119361</v>
+        <v>-0.02259538070876064</v>
       </c>
       <c r="E13">
-        <v>-0.02226478234656503</v>
+        <v>0.01481788764205636</v>
       </c>
       <c r="F13">
-        <v>-0.04991694291212616</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.0529574467559969</v>
+      </c>
+      <c r="G13">
+        <v>-0.001274601347527134</v>
+      </c>
+      <c r="H13">
+        <v>-0.01723929629449336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01057876033166123</v>
+        <v>0.003893301815565095</v>
       </c>
       <c r="C14">
-        <v>0.01538816091673968</v>
+        <v>-0.01871727601252639</v>
       </c>
       <c r="D14">
-        <v>-0.007597622207146065</v>
+        <v>-0.007689305722238936</v>
       </c>
       <c r="E14">
-        <v>-0.002685583581862225</v>
+        <v>-0.006219730579816249</v>
       </c>
       <c r="F14">
-        <v>-0.04452724737391685</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.02257443487926379</v>
+      </c>
+      <c r="G14">
+        <v>-0.02651458998079418</v>
+      </c>
+      <c r="H14">
+        <v>-0.006491544861053398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02279745977057979</v>
+        <v>0.02069617086535296</v>
       </c>
       <c r="C16">
-        <v>0.002102189124879935</v>
+        <v>-0.04070758627081599</v>
       </c>
       <c r="D16">
-        <v>-0.04116400082813194</v>
+        <v>-9.383407509371546e-05</v>
       </c>
       <c r="E16">
-        <v>0.00241447460966797</v>
+        <v>-0.006069836476234785</v>
       </c>
       <c r="F16">
-        <v>-0.02109794361360588</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.02475499820377276</v>
+      </c>
+      <c r="G16">
+        <v>-0.001636307749980979</v>
+      </c>
+      <c r="H16">
+        <v>-0.01237212326506576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.02490366413488915</v>
+        <v>0.02253981768289377</v>
       </c>
       <c r="C19">
-        <v>0.0005336960151304528</v>
+        <v>-0.0479752271461879</v>
       </c>
       <c r="D19">
-        <v>-0.03167383966789338</v>
+        <v>-0.01259468698347123</v>
       </c>
       <c r="E19">
-        <v>-0.007260078259959192</v>
+        <v>0.01847793189733797</v>
       </c>
       <c r="F19">
-        <v>-0.08089257210053999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.06710765989954377</v>
+      </c>
+      <c r="G19">
+        <v>-0.009638482342919792</v>
+      </c>
+      <c r="H19">
+        <v>-0.008202415462159272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001005533148305553</v>
+        <v>0.004723322606846636</v>
       </c>
       <c r="C20">
-        <v>0.004909159206746453</v>
+        <v>-0.02527003649726188</v>
       </c>
       <c r="D20">
-        <v>-0.001440328112623167</v>
+        <v>-0.01176762545548798</v>
       </c>
       <c r="E20">
-        <v>-0.02226200672557673</v>
+        <v>0.01459761857854644</v>
       </c>
       <c r="F20">
-        <v>-0.02875063723691641</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.02807939457973177</v>
+      </c>
+      <c r="G20">
+        <v>-0.01079037458117313</v>
+      </c>
+      <c r="H20">
+        <v>-0.01111125674466578</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02894121863824516</v>
+        <v>0.006401452615738262</v>
       </c>
       <c r="C21">
-        <v>0.02224243849111616</v>
+        <v>-0.027958545827078</v>
       </c>
       <c r="D21">
-        <v>-0.02121098002730721</v>
+        <v>-0.01472565177764418</v>
       </c>
       <c r="E21">
-        <v>-0.003773915671445888</v>
+        <v>0.01387689852250842</v>
       </c>
       <c r="F21">
-        <v>-0.03855896810525924</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.04860633301099616</v>
+      </c>
+      <c r="G21">
+        <v>-0.02594386123225869</v>
+      </c>
+      <c r="H21">
+        <v>-0.02523330708192862</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02294848830846703</v>
+        <v>0.01548439688613134</v>
       </c>
       <c r="C24">
-        <v>0.0001746296473090968</v>
+        <v>-0.04245661177332563</v>
       </c>
       <c r="D24">
-        <v>-0.03229791112515001</v>
+        <v>-0.005273454770128265</v>
       </c>
       <c r="E24">
-        <v>0.002362465726631072</v>
+        <v>-0.01083910615210026</v>
       </c>
       <c r="F24">
-        <v>-0.0172059934024207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.02605834412258587</v>
+      </c>
+      <c r="G24">
+        <v>0.004057164719804147</v>
+      </c>
+      <c r="H24">
+        <v>-0.01848653071166983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03482083098040242</v>
+        <v>0.03179736829102319</v>
       </c>
       <c r="C25">
-        <v>-0.001069387435157684</v>
+        <v>-0.05135544168296795</v>
       </c>
       <c r="D25">
-        <v>-0.03379066047033762</v>
+        <v>-0.008769883371778442</v>
       </c>
       <c r="E25">
-        <v>-0.006161311711902868</v>
+        <v>-0.01706660473663069</v>
       </c>
       <c r="F25">
-        <v>-0.03112014692555034</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.02736077741437491</v>
+      </c>
+      <c r="G25">
+        <v>-0.005156014673803498</v>
+      </c>
+      <c r="H25">
+        <v>-0.009983294294198938</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.004631038717984693</v>
+        <v>0.001127970607207719</v>
       </c>
       <c r="C26">
-        <v>0.007720313051473001</v>
+        <v>-0.003408823288538</v>
       </c>
       <c r="D26">
-        <v>-0.01088126719535414</v>
+        <v>-0.02321155665853737</v>
       </c>
       <c r="E26">
-        <v>-0.03234028685022911</v>
+        <v>-0.001407970048188566</v>
       </c>
       <c r="F26">
-        <v>-0.02874394935638315</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01359872693120919</v>
+      </c>
+      <c r="G26">
+        <v>-0.01514909280622132</v>
+      </c>
+      <c r="H26">
+        <v>-0.01281983230682556</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.001875439223038848</v>
+        <v>0.001014687577051737</v>
       </c>
       <c r="C27">
-        <v>3.084717829864384e-05</v>
+        <v>0.0009053831743086654</v>
       </c>
       <c r="D27">
-        <v>0.006334244177608203</v>
+        <v>0.0006936753661516994</v>
       </c>
       <c r="E27">
-        <v>0.01013178119203348</v>
+        <v>0.0008948035670110851</v>
       </c>
       <c r="F27">
-        <v>-0.01551109211409112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.002642256722507278</v>
+      </c>
+      <c r="G27">
+        <v>-0.003902283640786063</v>
+      </c>
+      <c r="H27">
+        <v>0.008055469203244679</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.09578634301277039</v>
+        <v>0.1493045562992547</v>
       </c>
       <c r="C28">
-        <v>-0.009483842477115463</v>
+        <v>0.210608520808262</v>
       </c>
       <c r="D28">
-        <v>0.2283059776407258</v>
+        <v>0.01565039093492821</v>
       </c>
       <c r="E28">
-        <v>-0.06587495343162839</v>
+        <v>0.01975177395911507</v>
       </c>
       <c r="F28">
-        <v>0.01260295057147088</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.005929710133218448</v>
+      </c>
+      <c r="G28">
+        <v>-0.03402346513869438</v>
+      </c>
+      <c r="H28">
+        <v>-0.03717191829093223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01131703791484332</v>
+        <v>0.008257782048042363</v>
       </c>
       <c r="C29">
-        <v>0.01095455206549415</v>
+        <v>-0.01590602057785664</v>
       </c>
       <c r="D29">
-        <v>-0.006834512254471102</v>
+        <v>-0.00655990602437783</v>
       </c>
       <c r="E29">
-        <v>-0.0003017717808651414</v>
+        <v>-0.005718350169624534</v>
       </c>
       <c r="F29">
-        <v>-0.04433781250214296</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.015313770270704</v>
+      </c>
+      <c r="G29">
+        <v>-0.02483763586146689</v>
+      </c>
+      <c r="H29">
+        <v>0.001686426220830721</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03632252940810203</v>
+        <v>0.03415272681081068</v>
       </c>
       <c r="C30">
-        <v>-0.04870519630713251</v>
+        <v>-0.07984121698433874</v>
       </c>
       <c r="D30">
-        <v>-0.05540638044447755</v>
+        <v>-0.02427018281704714</v>
       </c>
       <c r="E30">
-        <v>-0.01150034560588571</v>
+        <v>0.0006167588520044182</v>
       </c>
       <c r="F30">
-        <v>-0.08610663080036898</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.04967597713532157</v>
+      </c>
+      <c r="G30">
+        <v>0.02780646403154193</v>
+      </c>
+      <c r="H30">
+        <v>0.01715535105483451</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04405606040389505</v>
+        <v>0.03294302450796321</v>
       </c>
       <c r="C31">
-        <v>0.01030250179963553</v>
+        <v>-0.02046287889990658</v>
       </c>
       <c r="D31">
-        <v>-0.01567532648316522</v>
+        <v>-0.001576822844609463</v>
       </c>
       <c r="E31">
-        <v>0.005055448639701617</v>
+        <v>-0.008379231587437832</v>
       </c>
       <c r="F31">
-        <v>-0.0237801959631717</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01138579270700331</v>
+      </c>
+      <c r="G31">
+        <v>-0.02493554480582841</v>
+      </c>
+      <c r="H31">
+        <v>-0.006308444286495282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.004037752099791197</v>
+        <v>0.003936416724147879</v>
       </c>
       <c r="C32">
-        <v>0.0276797953418947</v>
+        <v>-0.0242412555601638</v>
       </c>
       <c r="D32">
-        <v>-0.02501245830420626</v>
+        <v>0.006720748142908766</v>
       </c>
       <c r="E32">
-        <v>0.009141216100053936</v>
+        <v>0.0008007093262117238</v>
       </c>
       <c r="F32">
-        <v>-0.05465057350937545</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.1016741716240796</v>
+      </c>
+      <c r="G32">
+        <v>-0.01413237787635924</v>
+      </c>
+      <c r="H32">
+        <v>-0.006631701083637099</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03041419545197709</v>
+        <v>0.0209633892506243</v>
       </c>
       <c r="C33">
-        <v>-0.01926426171275644</v>
+        <v>-0.04808568669763071</v>
       </c>
       <c r="D33">
-        <v>-0.03643367289735854</v>
+        <v>-0.01232010149726463</v>
       </c>
       <c r="E33">
-        <v>-0.02201167342703919</v>
+        <v>0.009331191516398883</v>
       </c>
       <c r="F33">
-        <v>-0.04465032357936164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.02945115595001668</v>
+      </c>
+      <c r="G33">
+        <v>0.006501070573957406</v>
+      </c>
+      <c r="H33">
+        <v>-0.02455008038106397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02401566162048898</v>
+        <v>0.03117530334763842</v>
       </c>
       <c r="C34">
-        <v>0.009856714282792021</v>
+        <v>-0.05323887324456875</v>
       </c>
       <c r="D34">
-        <v>-0.04171144240909749</v>
+        <v>0.007294160214013483</v>
       </c>
       <c r="E34">
-        <v>0.004917252624629901</v>
+        <v>-0.02068109754157089</v>
       </c>
       <c r="F34">
-        <v>-0.02498006614593372</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.02876368034282745</v>
+      </c>
+      <c r="G34">
+        <v>-0.008969460525798032</v>
+      </c>
+      <c r="H34">
+        <v>-0.0149647683550804</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01007970991957377</v>
+        <v>0.005641430946358291</v>
       </c>
       <c r="C36">
-        <v>0.005926954494553961</v>
+        <v>-0.0006343518201878314</v>
       </c>
       <c r="D36">
-        <v>-0.003903605298274683</v>
+        <v>-0.01044896053229706</v>
       </c>
       <c r="E36">
-        <v>-0.00798958422032486</v>
+        <v>-7.81827871010272e-05</v>
       </c>
       <c r="F36">
-        <v>-0.02536682070556576</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.009134288308923013</v>
+      </c>
+      <c r="G36">
+        <v>-0.009454839176349093</v>
+      </c>
+      <c r="H36">
+        <v>-0.01095495351434904</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01488139354437473</v>
+        <v>0.02410793457265679</v>
       </c>
       <c r="C38">
-        <v>-0.003472275865317715</v>
+        <v>-0.01710207454978377</v>
       </c>
       <c r="D38">
-        <v>-0.002496345630965425</v>
+        <v>0.009323393269538096</v>
       </c>
       <c r="E38">
-        <v>-0.03008227626836641</v>
+        <v>-0.002591582770955605</v>
       </c>
       <c r="F38">
-        <v>-0.03900536315156993</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.01722182577569406</v>
+      </c>
+      <c r="G38">
+        <v>-0.01079292780196926</v>
+      </c>
+      <c r="H38">
+        <v>-0.008106173866804924</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.01777697995324706</v>
+        <v>0.01256288741555263</v>
       </c>
       <c r="C39">
-        <v>0.007872777515898981</v>
+        <v>-0.08348525040448239</v>
       </c>
       <c r="D39">
-        <v>-0.06091879639771488</v>
+        <v>-0.01107266494824497</v>
       </c>
       <c r="E39">
-        <v>-0.01360484451355605</v>
+        <v>-0.004155892248609296</v>
       </c>
       <c r="F39">
-        <v>-0.04768816611085303</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.04429878257241365</v>
+      </c>
+      <c r="G39">
+        <v>0.008518348238258613</v>
+      </c>
+      <c r="H39">
+        <v>-0.0284638563189536</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.02163301676932557</v>
+        <v>0.02095819106118413</v>
       </c>
       <c r="C40">
-        <v>-0.003613181893224437</v>
+        <v>-0.02650797618429294</v>
       </c>
       <c r="D40">
-        <v>-0.03631100106041178</v>
+        <v>-0.01054885903440022</v>
       </c>
       <c r="E40">
-        <v>-0.01382150447833398</v>
+        <v>6.054222207945497e-05</v>
       </c>
       <c r="F40">
-        <v>-0.01173450720252198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.03117016395213999</v>
+      </c>
+      <c r="G40">
+        <v>0.00489700077925073</v>
+      </c>
+      <c r="H40">
+        <v>-0.02175916882247114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.006296714332435564</v>
+        <v>0.01012736819204154</v>
       </c>
       <c r="C41">
-        <v>-0.001134582122718414</v>
+        <v>0.008051788155650528</v>
       </c>
       <c r="D41">
-        <v>0.01293599587308086</v>
+        <v>-0.00258722007115854</v>
       </c>
       <c r="E41">
-        <v>-0.01222081658869196</v>
+        <v>-0.004886601987763086</v>
       </c>
       <c r="F41">
-        <v>-0.0003353356701562308</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.004826891119945188</v>
+      </c>
+      <c r="G41">
+        <v>-0.003584273517729025</v>
+      </c>
+      <c r="H41">
+        <v>-0.009919028356930825</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2342282864618536</v>
+        <v>0.05355417918632435</v>
       </c>
       <c r="C42">
-        <v>-0.1550267833748877</v>
+        <v>-0.1026976106647119</v>
       </c>
       <c r="D42">
-        <v>-0.2662368296024578</v>
+        <v>-0.1176889957292056</v>
       </c>
       <c r="E42">
-        <v>-0.6114911264744767</v>
+        <v>0.1216971848447971</v>
       </c>
       <c r="F42">
-        <v>0.6410922657877416</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.5577080195043284</v>
+      </c>
+      <c r="G42">
+        <v>0.3323978156777482</v>
+      </c>
+      <c r="H42">
+        <v>-0.713434192549491</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01270208088904615</v>
+        <v>0.0221080045038255</v>
       </c>
       <c r="C43">
-        <v>-0.003952002238989144</v>
+        <v>-0.0008090628225363399</v>
       </c>
       <c r="D43">
-        <v>0.004916893699107676</v>
+        <v>-0.002191674096530984</v>
       </c>
       <c r="E43">
-        <v>-0.01597391716077675</v>
+        <v>-0.001529543022247475</v>
       </c>
       <c r="F43">
-        <v>-0.01193549970866172</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01352852242094527</v>
+      </c>
+      <c r="G43">
+        <v>0.00109251328406527</v>
+      </c>
+      <c r="H43">
+        <v>-0.01495923282724574</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.007543767851921727</v>
+        <v>0.00985471731877912</v>
       </c>
       <c r="C44">
-        <v>0.01155943266882667</v>
+        <v>-0.04461303441895379</v>
       </c>
       <c r="D44">
-        <v>-0.02004888131968423</v>
+        <v>-0.00570099320019024</v>
       </c>
       <c r="E44">
-        <v>-0.03528423823644035</v>
+        <v>0.01010244162323508</v>
       </c>
       <c r="F44">
-        <v>-0.0653980915606916</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.03818364447326568</v>
+      </c>
+      <c r="G44">
+        <v>-0.01028634394566572</v>
+      </c>
+      <c r="H44">
+        <v>-0.03289269133567069</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01229483049744359</v>
+        <v>-0.001247176174180693</v>
       </c>
       <c r="C46">
-        <v>0.001652622410134001</v>
+        <v>-0.009194537898269399</v>
       </c>
       <c r="D46">
-        <v>-0.03602105100827434</v>
+        <v>-0.01125186603313427</v>
       </c>
       <c r="E46">
-        <v>-0.009991158060108939</v>
+        <v>0.001564830886021324</v>
       </c>
       <c r="F46">
-        <v>-0.06973939965079959</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01232231140768229</v>
+      </c>
+      <c r="G46">
+        <v>-0.01520145509510226</v>
+      </c>
+      <c r="H46">
+        <v>-0.001142481569567769</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.06745508684177141</v>
+        <v>0.0578350067156881</v>
       </c>
       <c r="C47">
-        <v>-0.005537607638319264</v>
+        <v>-0.05251185214345089</v>
       </c>
       <c r="D47">
-        <v>-0.01743983376480191</v>
+        <v>0.006751017487209962</v>
       </c>
       <c r="E47">
-        <v>0.02717837012853589</v>
+        <v>-0.006484096695607826</v>
       </c>
       <c r="F47">
-        <v>0.001196495394817728</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.03511725664391679</v>
+      </c>
+      <c r="G47">
+        <v>-0.03043320150480033</v>
+      </c>
+      <c r="H47">
+        <v>0.01102503589074044</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01965473492056875</v>
+        <v>0.008853240740536443</v>
       </c>
       <c r="C48">
-        <v>0.004355761353746936</v>
+        <v>-0.005011324902962775</v>
       </c>
       <c r="D48">
-        <v>-0.006695829011472306</v>
+        <v>-0.0005347494457373548</v>
       </c>
       <c r="E48">
-        <v>-0.007274952895741964</v>
+        <v>-0.00117747233861637</v>
       </c>
       <c r="F48">
-        <v>-0.02631096869332446</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.001106753424996835</v>
+      </c>
+      <c r="G48">
+        <v>-0.01593833780961046</v>
+      </c>
+      <c r="H48">
+        <v>-0.006624329487980274</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07840709312469037</v>
+        <v>0.06022596511790156</v>
       </c>
       <c r="C50">
-        <v>0.02232845342984861</v>
+        <v>-0.05219983874590144</v>
       </c>
       <c r="D50">
-        <v>-0.03929905144017124</v>
+        <v>0.005430901239559117</v>
       </c>
       <c r="E50">
-        <v>0.00649123438329609</v>
+        <v>-0.008118649673791186</v>
       </c>
       <c r="F50">
-        <v>-0.02523475451412885</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.02766619359913455</v>
+      </c>
+      <c r="G50">
+        <v>-0.05378483142770817</v>
+      </c>
+      <c r="H50">
+        <v>-0.005091028712308663</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.004399717951036982</v>
+        <v>0.006421637884957053</v>
       </c>
       <c r="C51">
-        <v>0.008095221266334733</v>
+        <v>-0.020340668661819</v>
       </c>
       <c r="D51">
-        <v>0.01497509834223128</v>
+        <v>-0.007894889026114755</v>
       </c>
       <c r="E51">
-        <v>-0.03882968861907795</v>
+        <v>-0.003810856133300036</v>
       </c>
       <c r="F51">
-        <v>-0.06381101284110628</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.04214990473084856</v>
+      </c>
+      <c r="G51">
+        <v>-0.01232904262650416</v>
+      </c>
+      <c r="H51">
+        <v>-0.02962989228744946</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.100132080942513</v>
+        <v>0.08311409747514444</v>
       </c>
       <c r="C53">
-        <v>0.005649942597887291</v>
+        <v>-0.07917495937938859</v>
       </c>
       <c r="D53">
-        <v>-0.04759293270931751</v>
+        <v>0.007883970682998431</v>
       </c>
       <c r="E53">
-        <v>0.05874471529621621</v>
+        <v>-0.031010594095811</v>
       </c>
       <c r="F53">
-        <v>0.005742709554617944</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05289699104282291</v>
+      </c>
+      <c r="G53">
+        <v>-0.03815066467455785</v>
+      </c>
+      <c r="H53">
+        <v>0.01483220722150613</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02376273262422173</v>
+        <v>0.01863902471259486</v>
       </c>
       <c r="C54">
-        <v>0.008626463152514408</v>
+        <v>-0.001087206439668654</v>
       </c>
       <c r="D54">
-        <v>0.002787285228542919</v>
+        <v>0.004888789488526655</v>
       </c>
       <c r="E54">
-        <v>0.01151161934498568</v>
+        <v>0.001711344817865516</v>
       </c>
       <c r="F54">
-        <v>-0.03359240261137716</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.01800035527744741</v>
+      </c>
+      <c r="G54">
+        <v>-0.01933427139009372</v>
+      </c>
+      <c r="H54">
+        <v>-0.006099735790802701</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.07545397766182708</v>
+        <v>0.05469873449087036</v>
       </c>
       <c r="C55">
-        <v>-0.001282580738789286</v>
+        <v>-0.06724570319272745</v>
       </c>
       <c r="D55">
-        <v>-0.06337216219046454</v>
+        <v>0.005578613247890695</v>
       </c>
       <c r="E55">
-        <v>0.03459139630813445</v>
+        <v>-0.01999942752195805</v>
       </c>
       <c r="F55">
-        <v>0.01353707934242143</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.05560969882638953</v>
+      </c>
+      <c r="G55">
+        <v>-0.02854879687989429</v>
+      </c>
+      <c r="H55">
+        <v>0.01423757334074256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.14127058719584</v>
+        <v>0.1205145341716025</v>
       </c>
       <c r="C56">
-        <v>-0.002524303852609627</v>
+        <v>-0.1111624815061164</v>
       </c>
       <c r="D56">
-        <v>-0.06429715104121315</v>
+        <v>0.0162425583890478</v>
       </c>
       <c r="E56">
-        <v>0.08549892245090931</v>
+        <v>-0.03219051001625921</v>
       </c>
       <c r="F56">
-        <v>0.03803751191971205</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.09039788929861094</v>
+      </c>
+      <c r="G56">
+        <v>-0.03978514469695622</v>
+      </c>
+      <c r="H56">
+        <v>0.04050682333257994</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03374155805589345</v>
+        <v>0.01609794891262857</v>
       </c>
       <c r="C57">
-        <v>-0.009133241478203246</v>
+        <v>-0.01672751195267421</v>
       </c>
       <c r="D57">
-        <v>-0.01781105628852696</v>
+        <v>-0.02338681051108684</v>
       </c>
       <c r="E57">
-        <v>-0.04221323762863823</v>
+        <v>0.03008929992042259</v>
       </c>
       <c r="F57">
-        <v>-0.03308387633889195</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.03659277197928991</v>
+      </c>
+      <c r="G57">
+        <v>-0.008430416942717994</v>
+      </c>
+      <c r="H57">
+        <v>-0.02097245599834762</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1959208165319861</v>
+        <v>0.07556203185300406</v>
       </c>
       <c r="C58">
-        <v>-0.1355104114628681</v>
+        <v>-0.1462775649519963</v>
       </c>
       <c r="D58">
-        <v>-0.1894531389438347</v>
+        <v>-0.01694789944475884</v>
       </c>
       <c r="E58">
-        <v>-0.4132695723460471</v>
+        <v>0.9616840416258842</v>
       </c>
       <c r="F58">
-        <v>-0.5727163682795758</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.04280971218939363</v>
+      </c>
+      <c r="G58">
+        <v>-0.09361022856739083</v>
+      </c>
+      <c r="H58">
+        <v>0.1130897313213174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.09040118801719942</v>
+        <v>0.1780606458563174</v>
       </c>
       <c r="C59">
-        <v>-0.02977781753914312</v>
+        <v>0.1946342306708558</v>
       </c>
       <c r="D59">
-        <v>0.1893824034474017</v>
+        <v>0.02320779063094902</v>
       </c>
       <c r="E59">
-        <v>-0.05523105890950827</v>
+        <v>0.0178133692891592</v>
       </c>
       <c r="F59">
-        <v>-0.03589274004107407</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.02977271368770407</v>
+      </c>
+      <c r="G59">
+        <v>-0.006281358043852775</v>
+      </c>
+      <c r="H59">
+        <v>-0.01966271043908341</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1918228000309827</v>
+        <v>0.2934426668342314</v>
       </c>
       <c r="C60">
-        <v>-0.04278039802223914</v>
+        <v>-0.1208057797213824</v>
       </c>
       <c r="D60">
-        <v>0.01905365000336665</v>
+        <v>0.006237241292560901</v>
       </c>
       <c r="E60">
-        <v>-0.0678010047235416</v>
+        <v>-0.06641311875421856</v>
       </c>
       <c r="F60">
-        <v>-0.09052947005905812</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.3527246290006377</v>
+      </c>
+      <c r="G60">
+        <v>0.1978671175086098</v>
+      </c>
+      <c r="H60">
+        <v>-0.1087635368931902</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02411212587471811</v>
+        <v>0.02036263538026148</v>
       </c>
       <c r="C61">
-        <v>0.001808556695558696</v>
+        <v>-0.0655368239874095</v>
       </c>
       <c r="D61">
-        <v>-0.04773781706905564</v>
+        <v>-0.00384727887620919</v>
       </c>
       <c r="E61">
-        <v>-0.007196458596425858</v>
+        <v>-0.007131965518619398</v>
       </c>
       <c r="F61">
-        <v>-0.02327483339082057</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03695149310357059</v>
+      </c>
+      <c r="G61">
+        <v>0.001197462594693356</v>
+      </c>
+      <c r="H61">
+        <v>-0.01700049674445585</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01328576140965861</v>
+        <v>0.00865651628118274</v>
       </c>
       <c r="C63">
-        <v>0.006019602586178017</v>
+        <v>-0.02742921138446481</v>
       </c>
       <c r="D63">
-        <v>-0.02157924766931938</v>
+        <v>-0.007267704895797812</v>
       </c>
       <c r="E63">
-        <v>-0.0004869725844088677</v>
+        <v>-0.01382275624634152</v>
       </c>
       <c r="F63">
-        <v>-0.01190436690782958</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.008219799820738716</v>
+      </c>
+      <c r="G63">
+        <v>-0.01905946119381766</v>
+      </c>
+      <c r="H63">
+        <v>-0.00317665950406518</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04068620162742106</v>
+        <v>0.03809269040620591</v>
       </c>
       <c r="C64">
-        <v>0.001655165382553228</v>
+        <v>-0.03784984180050481</v>
       </c>
       <c r="D64">
-        <v>-0.03077068802077879</v>
+        <v>-0.002766981222781503</v>
       </c>
       <c r="E64">
-        <v>-0.00185375162748826</v>
+        <v>-0.01720722916504314</v>
       </c>
       <c r="F64">
-        <v>-0.02402858986822204</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.003984167463995669</v>
+      </c>
+      <c r="G64">
+        <v>-0.0007575106123563386</v>
+      </c>
+      <c r="H64">
+        <v>-0.02322990217508322</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.0548001779694951</v>
+        <v>0.06170461279499289</v>
       </c>
       <c r="C65">
-        <v>0.005715357103082713</v>
+        <v>-0.08101849244875228</v>
       </c>
       <c r="D65">
-        <v>-0.0445847398827386</v>
+        <v>-0.01337407793611924</v>
       </c>
       <c r="E65">
-        <v>0.003716791771340332</v>
+        <v>-0.01731028703975612</v>
       </c>
       <c r="F65">
-        <v>-0.03518085152938587</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.03147688809938944</v>
+      </c>
+      <c r="G65">
+        <v>-0.001994222153792244</v>
+      </c>
+      <c r="H65">
+        <v>0.005415966450357344</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03968204663286911</v>
+        <v>0.02964749158280338</v>
       </c>
       <c r="C66">
-        <v>-0.01009335886025781</v>
+        <v>-0.1239072332157124</v>
       </c>
       <c r="D66">
-        <v>-0.07085267782564725</v>
+        <v>-0.009327036195056182</v>
       </c>
       <c r="E66">
-        <v>0.0269954593092184</v>
+        <v>-0.0089651172625097</v>
       </c>
       <c r="F66">
-        <v>-0.06727712404742225</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.06200574345409836</v>
+      </c>
+      <c r="G66">
+        <v>0.01500983617686365</v>
+      </c>
+      <c r="H66">
+        <v>-0.00282276442298451</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02811778752844168</v>
+        <v>0.0473117137975104</v>
       </c>
       <c r="C67">
-        <v>-0.006833040190394143</v>
+        <v>-0.02381274228128292</v>
       </c>
       <c r="D67">
-        <v>0.003765934582361691</v>
+        <v>0.008490501896032305</v>
       </c>
       <c r="E67">
-        <v>-0.0118914462164117</v>
+        <v>-0.009199781632592217</v>
       </c>
       <c r="F67">
-        <v>-0.02951509682356081</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01791345232170519</v>
+      </c>
+      <c r="G67">
+        <v>-0.01349296596307791</v>
+      </c>
+      <c r="H67">
+        <v>-0.0007804706638811374</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.09712902126170357</v>
+        <v>0.1692845613158357</v>
       </c>
       <c r="C68">
-        <v>-0.03125630972734912</v>
+        <v>0.2376378624009349</v>
       </c>
       <c r="D68">
-        <v>0.2195953590539977</v>
+        <v>0.004757005994834572</v>
       </c>
       <c r="E68">
-        <v>-0.05557282485203604</v>
+        <v>0.03006510226003745</v>
       </c>
       <c r="F68">
-        <v>-0.007365883772314314</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.007285048525363507</v>
+      </c>
+      <c r="G68">
+        <v>-0.01514062488604812</v>
+      </c>
+      <c r="H68">
+        <v>-0.02454725790943695</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05353607908913168</v>
+        <v>0.05884824797748145</v>
       </c>
       <c r="C69">
-        <v>-0.004048042152194009</v>
+        <v>-0.05143774013422397</v>
       </c>
       <c r="D69">
-        <v>-0.02576850399629166</v>
+        <v>0.0111826665156798</v>
       </c>
       <c r="E69">
-        <v>0.02897973173125111</v>
+        <v>-0.02747442646100427</v>
       </c>
       <c r="F69">
-        <v>-0.01039429708776868</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.009746286796628709</v>
+      </c>
+      <c r="G69">
+        <v>-0.01780326901882774</v>
+      </c>
+      <c r="H69">
+        <v>0.007045345572269874</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.08914581102978997</v>
+        <v>0.1518700308948705</v>
       </c>
       <c r="C71">
-        <v>-0.01706572140871634</v>
+        <v>0.2033404704652695</v>
       </c>
       <c r="D71">
-        <v>0.2145182751973062</v>
+        <v>0.01099063564083309</v>
       </c>
       <c r="E71">
-        <v>-0.09776676721712675</v>
+        <v>0.04241734510800784</v>
       </c>
       <c r="F71">
-        <v>0.02679506321172921</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.01301732499651205</v>
+      </c>
+      <c r="G71">
+        <v>-0.02445932049715206</v>
+      </c>
+      <c r="H71">
+        <v>-0.04870902062065572</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1020969387389355</v>
+        <v>0.07412804921361313</v>
       </c>
       <c r="C72">
-        <v>-0.007519933492685355</v>
+        <v>-0.093035888457774</v>
       </c>
       <c r="D72">
-        <v>-0.1109380722505477</v>
+        <v>0.01297939574234399</v>
       </c>
       <c r="E72">
-        <v>0.01066688764907947</v>
+        <v>-0.03095253365300057</v>
       </c>
       <c r="F72">
-        <v>-0.1496413383780371</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.04950385112523413</v>
+      </c>
+      <c r="G72">
+        <v>0.01297323122355361</v>
+      </c>
+      <c r="H72">
+        <v>0.01132258060531717</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2334009257272052</v>
+        <v>0.3673590424396841</v>
       </c>
       <c r="C73">
-        <v>-0.09974407566608576</v>
+        <v>-0.1838594919716549</v>
       </c>
       <c r="D73">
-        <v>-0.01800867272602702</v>
+        <v>0.001320822380221691</v>
       </c>
       <c r="E73">
-        <v>-0.1261683007673522</v>
+        <v>-0.05384517517068244</v>
       </c>
       <c r="F73">
-        <v>-0.09363181494039559</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.3864293090231277</v>
+      </c>
+      <c r="G73">
+        <v>0.2606421200286413</v>
+      </c>
+      <c r="H73">
+        <v>-0.1529049914848883</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1321096676771716</v>
+        <v>0.108548016922446</v>
       </c>
       <c r="C74">
-        <v>-0.009990775508049601</v>
+        <v>-0.1167902339289124</v>
       </c>
       <c r="D74">
-        <v>-0.06164509374650148</v>
+        <v>0.01439061105280101</v>
       </c>
       <c r="E74">
-        <v>0.08145742431533386</v>
+        <v>-0.03696899592741995</v>
       </c>
       <c r="F74">
-        <v>0.03145195290678964</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.06871310772172826</v>
+      </c>
+      <c r="G74">
+        <v>-0.0448772449662465</v>
+      </c>
+      <c r="H74">
+        <v>0.02341749546252347</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2590316904943294</v>
+        <v>0.2319818018777328</v>
       </c>
       <c r="C75">
-        <v>-0.02747346770378644</v>
+        <v>-0.1783454816358969</v>
       </c>
       <c r="D75">
-        <v>-0.08916563177277759</v>
+        <v>0.03521235863867959</v>
       </c>
       <c r="E75">
-        <v>0.1840011169790421</v>
+        <v>-0.04050044868260921</v>
       </c>
       <c r="F75">
-        <v>0.01198027034781947</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1834292405590097</v>
+      </c>
+      <c r="G75">
+        <v>-0.07251535756120805</v>
+      </c>
+      <c r="H75">
+        <v>0.1140969799696657</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.272175898240559</v>
+        <v>0.1518107328358039</v>
       </c>
       <c r="C76">
-        <v>-0.00825693188122365</v>
+        <v>-0.1458918709975063</v>
       </c>
       <c r="D76">
-        <v>-0.1059218663817215</v>
+        <v>0.02877808183431739</v>
       </c>
       <c r="E76">
-        <v>0.2306163366740301</v>
+        <v>-0.06262486458379452</v>
       </c>
       <c r="F76">
-        <v>0.06486145443869606</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1577182599225099</v>
+      </c>
+      <c r="G76">
+        <v>-0.08380909091690625</v>
+      </c>
+      <c r="H76">
+        <v>0.08562258637809396</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.07995475103959555</v>
+        <v>0.04628526851823073</v>
       </c>
       <c r="C77">
-        <v>-0.01260805189118355</v>
+        <v>-0.06974051844416437</v>
       </c>
       <c r="D77">
-        <v>-0.07527343555657137</v>
+        <v>-0.01204592212221015</v>
       </c>
       <c r="E77">
-        <v>-0.1133055168225194</v>
+        <v>0.03142749366177248</v>
       </c>
       <c r="F77">
-        <v>-0.02591591630836349</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.01939791956086702</v>
+      </c>
+      <c r="G77">
+        <v>-0.02524365765391439</v>
+      </c>
+      <c r="H77">
+        <v>-0.03200613605508083</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.0291045684861308</v>
+        <v>0.03064547168910049</v>
       </c>
       <c r="C78">
-        <v>0.004723950405284442</v>
+        <v>-0.06012884571819668</v>
       </c>
       <c r="D78">
-        <v>-0.06018530538661056</v>
+        <v>-0.004317111365888833</v>
       </c>
       <c r="E78">
-        <v>-0.02087779962774464</v>
+        <v>0.004678353582921761</v>
       </c>
       <c r="F78">
-        <v>-0.06785935056122168</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.05031029655329358</v>
+      </c>
+      <c r="G78">
+        <v>0.001279631441524691</v>
+      </c>
+      <c r="H78">
+        <v>-0.01359672694239538</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2302137968358508</v>
+        <v>0.06549990215458376</v>
       </c>
       <c r="C80">
-        <v>0.9457547586740559</v>
+        <v>-0.08525762275584192</v>
       </c>
       <c r="D80">
-        <v>0.03478584085888255</v>
+        <v>-0.009205136108356831</v>
       </c>
       <c r="E80">
-        <v>-0.1491726045646966</v>
+        <v>-0.06534729127457803</v>
       </c>
       <c r="F80">
-        <v>0.01741305004248544</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.131378945158105</v>
+      </c>
+      <c r="G80">
+        <v>-0.8224293651851092</v>
+      </c>
+      <c r="H80">
+        <v>-0.4661771535145293</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.2030595752119183</v>
+        <v>0.1408365619743669</v>
       </c>
       <c r="C81">
-        <v>-0.01024478048491769</v>
+        <v>-0.1011538404347442</v>
       </c>
       <c r="D81">
-        <v>-0.05487409014750153</v>
+        <v>0.02170690908164018</v>
       </c>
       <c r="E81">
-        <v>0.1521599733306693</v>
+        <v>-0.02428437630010094</v>
       </c>
       <c r="F81">
-        <v>-0.01089072493627073</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1169317390497352</v>
+      </c>
+      <c r="G81">
+        <v>-0.06655669002697147</v>
+      </c>
+      <c r="H81">
+        <v>0.06555576864154793</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.02081370779091238</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.01507474469390892</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.001884115359518491</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.01447134795920716</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.01464618861529446</v>
+      </c>
+      <c r="G82">
+        <v>0.007428761520273237</v>
+      </c>
+      <c r="H82">
+        <v>0.00116305964531394</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.0286157900527314</v>
+        <v>0.02279391307604228</v>
       </c>
       <c r="C83">
-        <v>-0.006940836596538508</v>
+        <v>-0.0198667072291239</v>
       </c>
       <c r="D83">
-        <v>-0.01178057745020433</v>
+        <v>-0.004397078766502549</v>
       </c>
       <c r="E83">
-        <v>-0.03848713671046847</v>
+        <v>0.01653761662052263</v>
       </c>
       <c r="F83">
-        <v>-0.03510343128583238</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.03657800483512429</v>
+      </c>
+      <c r="G83">
+        <v>-0.005867949619771967</v>
+      </c>
+      <c r="H83">
+        <v>-0.01994787602196633</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2543325853180805</v>
+        <v>0.2266676676364949</v>
       </c>
       <c r="C85">
-        <v>-0.03671799613589832</v>
+        <v>-0.192582359833767</v>
       </c>
       <c r="D85">
-        <v>-0.1119947150606982</v>
+        <v>0.02386279412650963</v>
       </c>
       <c r="E85">
-        <v>0.2012011398798994</v>
+        <v>-0.07313582368671484</v>
       </c>
       <c r="F85">
-        <v>0.03735434017438024</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1830102286144437</v>
+      </c>
+      <c r="G85">
+        <v>-0.0284725208864444</v>
+      </c>
+      <c r="H85">
+        <v>0.1256198715165655</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0007251473187512216</v>
+        <v>0.009207166439161306</v>
       </c>
       <c r="C86">
-        <v>0.009547572111032404</v>
+        <v>-0.03089061889252535</v>
       </c>
       <c r="D86">
-        <v>-0.04557464945951883</v>
+        <v>-0.008839223610281144</v>
       </c>
       <c r="E86">
-        <v>-0.03081905801972052</v>
+        <v>0.008390883157413171</v>
       </c>
       <c r="F86">
-        <v>-0.07429525215882132</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.0411835147114809</v>
+      </c>
+      <c r="G86">
+        <v>-0.02014234233769466</v>
+      </c>
+      <c r="H86">
+        <v>-0.05364204622746492</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03122426882387936</v>
+        <v>0.005688766287708506</v>
       </c>
       <c r="C87">
-        <v>0.004570174305760006</v>
+        <v>-0.03509715428692744</v>
       </c>
       <c r="D87">
-        <v>-0.04139287521559981</v>
+        <v>-0.01049495331645112</v>
       </c>
       <c r="E87">
-        <v>-0.05815441261437412</v>
+        <v>0.04261797266566202</v>
       </c>
       <c r="F87">
-        <v>-0.07118019909904963</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.055000745344875</v>
+      </c>
+      <c r="G87">
+        <v>-0.01016915758198031</v>
+      </c>
+      <c r="H87">
+        <v>-0.04628481766076212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.04132207702246406</v>
+        <v>0.06310332065191737</v>
       </c>
       <c r="C88">
-        <v>-0.007536220708419859</v>
+        <v>-0.04177803291741269</v>
       </c>
       <c r="D88">
-        <v>0.002259734339508498</v>
+        <v>-0.01902893239377662</v>
       </c>
       <c r="E88">
-        <v>0.0003486742189828468</v>
+        <v>-0.01086143951699578</v>
       </c>
       <c r="F88">
-        <v>0.009922080781524768</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.03526645558766196</v>
+      </c>
+      <c r="G88">
+        <v>-0.001457690048075202</v>
+      </c>
+      <c r="H88">
+        <v>-0.008001478987232183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1609163860840294</v>
+        <v>0.2658832027829134</v>
       </c>
       <c r="C89">
-        <v>-0.06256389870638573</v>
+        <v>0.3453863217741844</v>
       </c>
       <c r="D89">
-        <v>0.3686559168349418</v>
+        <v>0.01834013914634009</v>
       </c>
       <c r="E89">
-        <v>-0.03881113119338192</v>
+        <v>0.01767632971171203</v>
       </c>
       <c r="F89">
-        <v>-0.03523633623139858</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.003863433488427972</v>
+      </c>
+      <c r="G89">
+        <v>-0.01001996571755655</v>
+      </c>
+      <c r="H89">
+        <v>-0.001916258104813786</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1039619432118983</v>
+        <v>0.2148777103351589</v>
       </c>
       <c r="C90">
-        <v>-0.05792995563068025</v>
+        <v>0.3136613066755692</v>
       </c>
       <c r="D90">
-        <v>0.3364448595512722</v>
+        <v>0.01780561389289462</v>
       </c>
       <c r="E90">
-        <v>-0.04073882635703791</v>
+        <v>0.03027824309910488</v>
       </c>
       <c r="F90">
-        <v>0.02015054208171368</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04627026285242934</v>
+      </c>
+      <c r="G90">
+        <v>-0.007854691852661513</v>
+      </c>
+      <c r="H90">
+        <v>0.005164304209644217</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2958334306870399</v>
+        <v>0.2003503924555405</v>
       </c>
       <c r="C91">
-        <v>-0.03939788931506029</v>
+        <v>-0.141262768424164</v>
       </c>
       <c r="D91">
-        <v>-0.1209192178582784</v>
+        <v>0.03135426569729633</v>
       </c>
       <c r="E91">
-        <v>0.2200602507567939</v>
+        <v>-0.05597210577826939</v>
       </c>
       <c r="F91">
-        <v>0.1143541123561793</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1910004952912438</v>
+      </c>
+      <c r="G91">
+        <v>-0.06808936565575927</v>
+      </c>
+      <c r="H91">
+        <v>0.09304337073162994</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2257469185077156</v>
+        <v>0.2425978088608018</v>
       </c>
       <c r="C92">
-        <v>-0.06715255713136611</v>
+        <v>0.2446208488137277</v>
       </c>
       <c r="D92">
-        <v>0.3713745483792099</v>
+        <v>0.06083107061609266</v>
       </c>
       <c r="E92">
-        <v>0.05365004956854514</v>
+        <v>0.04406630629001227</v>
       </c>
       <c r="F92">
-        <v>0.0179835938602057</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1082495243036663</v>
+      </c>
+      <c r="G92">
+        <v>-0.09199557055362895</v>
+      </c>
+      <c r="H92">
+        <v>0.05444543583232495</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1514976629534595</v>
+        <v>0.2513995965008594</v>
       </c>
       <c r="C93">
-        <v>-0.08351399219774466</v>
+        <v>0.3059169844631663</v>
       </c>
       <c r="D93">
-        <v>0.3934026075295083</v>
+        <v>0.02678122941116639</v>
       </c>
       <c r="E93">
-        <v>-0.07648835638123966</v>
+        <v>0.03455728301743597</v>
       </c>
       <c r="F93">
-        <v>0.06079518702212119</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01962185275758628</v>
+      </c>
+      <c r="G93">
+        <v>0.01373672429973891</v>
+      </c>
+      <c r="H93">
+        <v>-0.02881636749309154</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3179923659334984</v>
+        <v>0.2627402897298887</v>
       </c>
       <c r="C94">
-        <v>-0.06765883241845089</v>
+        <v>-0.1799496510894901</v>
       </c>
       <c r="D94">
-        <v>-0.08234959093376115</v>
+        <v>0.02037635417636384</v>
       </c>
       <c r="E94">
-        <v>0.2540098010728754</v>
+        <v>-0.06403703251636478</v>
       </c>
       <c r="F94">
-        <v>-0.01196663698258436</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.283190222101773</v>
+      </c>
+      <c r="G94">
+        <v>-0.07386216359678606</v>
+      </c>
+      <c r="H94">
+        <v>0.3316737704062341</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.05052686630951152</v>
+        <v>0.07603636783245742</v>
       </c>
       <c r="C95">
-        <v>-0.07448410216644835</v>
+        <v>-0.1113161468466879</v>
       </c>
       <c r="D95">
-        <v>-0.01860957102364965</v>
+        <v>0.01181106881547089</v>
       </c>
       <c r="E95">
-        <v>0.03321019201941602</v>
+        <v>0.01940848464847757</v>
       </c>
       <c r="F95">
-        <v>-0.05028307328579295</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.09717945579737257</v>
+      </c>
+      <c r="G95">
+        <v>0.1043598344236039</v>
+      </c>
+      <c r="H95">
+        <v>0.009340120414219629</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1918372711014265</v>
+        <v>0.2065471544388564</v>
       </c>
       <c r="C98">
-        <v>-0.06189165059207599</v>
+        <v>-0.06914963010168707</v>
       </c>
       <c r="D98">
-        <v>0.03116322670099</v>
+        <v>0.02721220448396139</v>
       </c>
       <c r="E98">
-        <v>-0.1260350742046296</v>
+        <v>0.01022096088372153</v>
       </c>
       <c r="F98">
-        <v>-0.09000484767619149</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.207893136261317</v>
+      </c>
+      <c r="G98">
+        <v>0.1426562402121751</v>
+      </c>
+      <c r="H98">
+        <v>-0.1295938562142899</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.007636433270291748</v>
+        <v>0.002475519603128735</v>
       </c>
       <c r="C101">
-        <v>0.004060206029391031</v>
+        <v>-0.01714376409029974</v>
       </c>
       <c r="D101">
-        <v>-0.02865037794929701</v>
+        <v>-0.007527190677271076</v>
       </c>
       <c r="E101">
-        <v>-0.06449514592800593</v>
+        <v>0.03096772365758113</v>
       </c>
       <c r="F101">
-        <v>-0.1865036911598689</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03026513481267374</v>
+      </c>
+      <c r="G101">
+        <v>-0.03077653246344068</v>
+      </c>
+      <c r="H101">
+        <v>0.01469451743775615</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1361502814586428</v>
+        <v>0.1137159419017268</v>
       </c>
       <c r="C102">
-        <v>-0.01436748775611545</v>
+        <v>-0.08603256252776055</v>
       </c>
       <c r="D102">
-        <v>-0.04899197740193195</v>
+        <v>0.003800219271383362</v>
       </c>
       <c r="E102">
-        <v>0.09914153185387131</v>
+        <v>-0.04273638281368095</v>
       </c>
       <c r="F102">
-        <v>0.05094741635426665</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.07840190634542725</v>
+      </c>
+      <c r="G102">
+        <v>-0.02050763275820803</v>
+      </c>
+      <c r="H102">
+        <v>0.04180291610643261</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04338987247053797</v>
+        <v>0.009111159245439064</v>
       </c>
       <c r="C103">
-        <v>0.01344921511817793</v>
+        <v>-0.00855686959256418</v>
       </c>
       <c r="D103">
-        <v>-0.02017712077156379</v>
+        <v>0.000189961352121693</v>
       </c>
       <c r="E103">
-        <v>0.01591889274338078</v>
+        <v>0.001089317628162029</v>
       </c>
       <c r="F103">
-        <v>-0.003875189341773635</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01203542582002987</v>
+      </c>
+      <c r="G103">
+        <v>-0.0199552031154639</v>
+      </c>
+      <c r="H103">
+        <v>-0.004921840762703108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.07530771717265131</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.04619080729359089</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9828601834770953</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.03783880471091123</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.01905241422246341</v>
+      </c>
+      <c r="G104">
+        <v>-0.04091198471560949</v>
+      </c>
+      <c r="H104">
+        <v>0.1128111614762196</v>
       </c>
     </row>
   </sheetData>
